--- a/public/files/import_products_csv_template.xlsx
+++ b/public/files/import_products_csv_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>NOME</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>%IPI</t>
+  </si>
+  <si>
+    <t>CFOP ENTRADA ESTADUAL</t>
+  </si>
+  <si>
+    <t>CFOP ENTRADA OUTRO ESTADO</t>
+  </si>
+  <si>
+    <t>ESTOQUE</t>
+  </si>
+  <si>
+    <t>ESTOQUE MÍNIMO</t>
   </si>
 </sst>
 </file>
@@ -111,7 +123,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +136,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -148,13 +166,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -162,6 +217,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -183,6 +247,8 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffa5d5e2"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1244,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1267,7 +1333,9 @@
     <col min="15" max="15" width="38.1719" style="1" customWidth="1"/>
     <col min="16" max="16" width="29.6719" style="1" customWidth="1"/>
     <col min="17" max="24" width="20.5" style="1" customWidth="1"/>
-    <col min="25" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="25" max="25" width="25.5" style="1" customWidth="1"/>
+    <col min="26" max="28" width="31.1719" style="1" customWidth="1"/>
+    <col min="29" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.65" customHeight="1">
@@ -1343,6 +1411,48 @@
       <c r="X1" t="s" s="2">
         <v>22</v>
       </c>
+      <c r="Y1" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
